--- a/WF/temp/products.xlsx
+++ b/WF/temp/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,6 +2043,326 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Ceramic Pot - 8 inch</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Durable ceramic pot perfect for indoor plants.</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['All', 'Pots']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Mini Pot Planters - 10 pcs</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Set of 10 colorful mini planters for small plants.</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>100</v>
+      </c>
+      <c r="E52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>['All', 'Pots']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Terracotta Pot - 12 inch</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Classic terracotta pot for garden and patio use.</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>40</v>
+      </c>
+      <c r="E53" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="F53" t="n">
+        <v>12</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>['All', 'Pots']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Hanging Pot Set - 3 pcs</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Hanging pot set with metal chains for balconies.</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>30</v>
+      </c>
+      <c r="E54" t="n">
+        <v>22</v>
+      </c>
+      <c r="F54" t="n">
+        <v>15</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>['All', 'Pots']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Glass Pot for Succulents</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Transparent glass pot ideal for succulent display.</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>60</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['All', 'Pots']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Large Outdoor Pot - 20 inch</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Large outdoor pot designed for trees and shrubs.</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E56" t="n">
+        <v>35</v>
+      </c>
+      <c r="F56" t="n">
+        <v>25</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['All', 'Pots']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Decorative Pot with Stand</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Decorative pot with wooden stand for living rooms.</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>25</v>
+      </c>
+      <c r="E57" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="F57" t="n">
+        <v>20</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['All', 'Pots']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Plastic Pot - 5 inch</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sturdy plastic pot suitable for various plants.</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>70</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10</v>
+      </c>
+      <c r="F58" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>['All', 'Pots']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Bamboo Pot - Eco Friendly</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Eco-friendly bamboo pot for sustainable gardening.</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>45</v>
+      </c>
+      <c r="E59" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>11</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>['All', 'Pots']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Self-Watering Pot - 6 inch</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Self-watering pot to keep plants hydrated longer.</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>55</v>
+      </c>
+      <c r="E60" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="F60" t="n">
+        <v>13</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>['All', 'Pots']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/WF/temp/products.xlsx
+++ b/WF/temp/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>Selling Price</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Selling Price</t>
+          <t>Cost Price</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Cost Price</t>
+          <t>Visible</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Visible</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
@@ -490,18 +485,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
         <v>0.5</v>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>['All', 'Fertiliser']</t>
         </is>
@@ -518,22 +510,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>These sunflower seeds are easy to grow and suitable for beginners. It contains 20 seeds in a packet, with 50-60 days to maturity.</t>
+          <t>You'll love our sunflower seeds! 
+- Easy to grow, perfect for beginners who want to start their gardening journey.
+- A packet of 20 high-quality seeds ensures you have enough to experiment and expand your garden.
+- With 50-60 days to maturity, you can expect a bountiful harvest of beautiful flowers in no time.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>3.6</v>
       </c>
       <c r="E3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>['All', 'Seeds']</t>
         </is>
@@ -554,18 +546,15 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>3.6</v>
       </c>
       <c r="E4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>['All', 'Seeds']</t>
         </is>
@@ -586,18 +575,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>['All', 'Tools']</t>
         </is>
@@ -618,18 +604,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>3.6</v>
       </c>
       <c r="E6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>['All', 'Seeds']</t>
         </is>
@@ -650,18 +633,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
-      </c>
-      <c r="F7" t="n">
         <v>3</v>
       </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>['All', 'Tools']</t>
         </is>
@@ -682,18 +662,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>500</v>
+        <v>3.5</v>
       </c>
       <c r="E8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F8" t="n">
         <v>0.6</v>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>['All', 'Fertiliser']</t>
         </is>
@@ -714,18 +691,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>3.6</v>
       </c>
       <c r="E9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>['All', 'Seeds']</t>
         </is>
@@ -746,18 +720,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
-      </c>
-      <c r="F10" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>['All', 'Tools']</t>
         </is>
@@ -778,18 +749,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>['All', 'Fertiliser']</t>
         </is>
@@ -810,18 +778,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>3.6</v>
       </c>
       <c r="E12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>['All', 'Seeds']</t>
         </is>
@@ -842,18 +807,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" t="n">
         <v>0.8</v>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>['All', 'Fertiliser']</t>
         </is>
@@ -874,18 +836,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>30</v>
+        <v>3.6</v>
       </c>
       <c r="E14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>['All', 'Seeds']</t>
         </is>
@@ -906,18 +865,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
-      </c>
-      <c r="F15" t="n">
         <v>4</v>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>['All', 'Tools']</t>
         </is>
@@ -938,18 +894,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
-      </c>
-      <c r="F16" t="n">
         <v>6</v>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>['All', 'Tools']</t>
         </is>
@@ -970,18 +923,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>3.6</v>
       </c>
       <c r="E17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>['All', 'Seeds']</t>
         </is>
@@ -1002,18 +952,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
-      </c>
-      <c r="F18" t="n">
         <v>4</v>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>['All', 'Tools']</t>
         </is>
@@ -1034,18 +981,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>['All', 'Fertiliser']</t>
         </is>
@@ -1066,18 +1010,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>3.6</v>
       </c>
       <c r="E20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>['All', 'Seeds']</t>
         </is>
@@ -1098,18 +1039,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
-      </c>
-      <c r="F21" t="n">
         <v>3</v>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>['All', 'Tools']</t>
         </is>
@@ -1130,18 +1068,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>3.6</v>
       </c>
       <c r="E22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>['All', 'Seeds']</t>
         </is>
@@ -1162,18 +1097,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
-      </c>
-      <c r="F23" t="n">
         <v>5</v>
       </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>['All', 'Tools']</t>
         </is>
@@ -1194,18 +1126,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E24" t="n">
-        <v>35</v>
-      </c>
-      <c r="F24" t="n">
         <v>8</v>
       </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>['All', 'Tools']</t>
         </is>
@@ -1226,18 +1155,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>30</v>
+        <v>3.6</v>
       </c>
       <c r="E25" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>['All', 'Seeds']</t>
         </is>
@@ -1258,18 +1184,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
-      </c>
-      <c r="F26" t="n">
         <v>5</v>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>['All', 'Tools']</t>
         </is>
@@ -1290,18 +1213,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
-      </c>
-      <c r="F27" t="n">
         <v>1.2</v>
       </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>['All', 'Fertiliser']</t>
         </is>
@@ -1322,18 +1242,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>3.6</v>
       </c>
       <c r="E28" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>['All', 'Seeds']</t>
         </is>
@@ -1354,18 +1271,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
-      </c>
-      <c r="F29" t="n">
         <v>2.5</v>
       </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>['All', 'Pots']</t>
         </is>
@@ -1386,18 +1300,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
-      </c>
-      <c r="F30" t="n">
         <v>2</v>
       </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>['All', 'Gardening Tools']</t>
         </is>
@@ -1418,18 +1329,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="E31" t="n">
-        <v>25</v>
-      </c>
-      <c r="F31" t="n">
         <v>10</v>
       </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>['All', 'Decorative Items']</t>
         </is>
@@ -1450,18 +1358,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
-      </c>
-      <c r="F32" t="n">
         <v>3</v>
       </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>['All', 'Gardening Tools']</t>
         </is>
@@ -1482,18 +1387,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="E33" t="n">
-        <v>18</v>
-      </c>
-      <c r="F33" t="n">
         <v>4.5</v>
       </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>['All', 'Fertilisers']</t>
         </is>
@@ -1514,18 +1416,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="E34" t="n">
-        <v>28</v>
-      </c>
-      <c r="F34" t="n">
         <v>12</v>
       </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>['All', 'Gardening Tools']</t>
         </is>
@@ -1546,18 +1445,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>12</v>
-      </c>
-      <c r="F35" t="n">
         <v>3.5</v>
       </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>['All', 'Gardening Tools']</t>
         </is>
@@ -1578,18 +1474,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="E36" t="n">
-        <v>22</v>
-      </c>
-      <c r="F36" t="n">
         <v>6</v>
       </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>['All', 'Fertilisers']</t>
         </is>
@@ -1610,18 +1503,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
-      </c>
-      <c r="F37" t="n">
         <v>2.5</v>
       </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>['All', 'Gardening Tools']</t>
         </is>
@@ -1642,18 +1532,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E38" t="n">
-        <v>35</v>
-      </c>
-      <c r="F38" t="n">
         <v>15</v>
       </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>['All', 'Decorative Items']</t>
         </is>
@@ -1674,18 +1561,15 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>15</v>
-      </c>
-      <c r="F39" t="n">
         <v>4</v>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>['All', 'Gardening Tools']</t>
         </is>
@@ -1706,18 +1590,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="E40" t="n">
-        <v>45</v>
-      </c>
-      <c r="F40" t="n">
         <v>20</v>
       </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>['All', 'Fertilisers']</t>
         </is>
@@ -1738,18 +1619,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E41" t="n">
-        <v>60</v>
-      </c>
-      <c r="F41" t="n">
         <v>30</v>
       </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>['All', 'Decorative Items']</t>
         </is>
@@ -1770,18 +1648,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="E42" t="n">
-        <v>35</v>
-      </c>
-      <c r="F42" t="n">
         <v>15</v>
       </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>['All', 'Gardening Tools']</t>
         </is>
@@ -1802,18 +1677,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="E43" t="n">
-        <v>18</v>
-      </c>
-      <c r="F43" t="n">
         <v>5</v>
       </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>['All', 'Gardening Tools']</t>
         </is>
@@ -1834,18 +1706,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="E44" t="n">
-        <v>55</v>
-      </c>
-      <c r="F44" t="n">
         <v>25</v>
       </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>['All', 'Fertilisers']</t>
         </is>
@@ -1866,18 +1735,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>15</v>
-      </c>
-      <c r="F45" t="n">
         <v>4</v>
       </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>['All', 'Gardening Tools']</t>
         </is>
@@ -1898,18 +1764,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E46" t="n">
-        <v>70</v>
-      </c>
-      <c r="F46" t="n">
         <v>35</v>
       </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>['All', 'Decorative Items']</t>
         </is>
@@ -1930,18 +1793,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E47" t="n">
-        <v>20</v>
-      </c>
-      <c r="F47" t="n">
         <v>6</v>
       </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>['All', 'Gardening Tools']</t>
         </is>
@@ -1962,18 +1822,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="E48" t="n">
-        <v>80</v>
-      </c>
-      <c r="F48" t="n">
         <v>40</v>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>['All', 'Fertilisers']</t>
         </is>
@@ -1994,18 +1851,15 @@
         </is>
       </c>
       <c r="D49" t="n">
+        <v>80</v>
+      </c>
+      <c r="E49" t="n">
         <v>40</v>
       </c>
-      <c r="E49" t="n">
-        <v>80</v>
-      </c>
-      <c r="F49" t="n">
-        <v>40</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>['All', 'Decorative Items']</t>
         </is>
@@ -2026,340 +1880,17 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="E50" t="n">
-        <v>40</v>
-      </c>
-      <c r="F50" t="n">
         <v>18</v>
       </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>['All', 'Gardening Tools']</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Ceramic Pot - 8 inch</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Durable ceramic pot perfect for indoor plants.</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>50</v>
-      </c>
-      <c r="E51" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="F51" t="n">
-        <v>10</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>['All', 'Pots']</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Mini Pot Planters - 10 pcs</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Set of 10 colorful mini planters for small plants.</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>100</v>
-      </c>
-      <c r="E52" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F52" t="n">
-        <v>8</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>['All', 'Pots']</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Terracotta Pot - 12 inch</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Classic terracotta pot for garden and patio use.</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>40</v>
-      </c>
-      <c r="E53" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="F53" t="n">
-        <v>12</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>['All', 'Pots']</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Hanging Pot Set - 3 pcs</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Hanging pot set with metal chains for balconies.</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>30</v>
-      </c>
-      <c r="E54" t="n">
-        <v>22</v>
-      </c>
-      <c r="F54" t="n">
-        <v>15</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>['All', 'Pots']</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Glass Pot for Succulents</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Transparent glass pot ideal for succulent display.</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>60</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="F55" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>['All', 'Pots']</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Large Outdoor Pot - 20 inch</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Large outdoor pot designed for trees and shrubs.</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>20</v>
-      </c>
-      <c r="E56" t="n">
-        <v>35</v>
-      </c>
-      <c r="F56" t="n">
-        <v>25</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>['All', 'Pots']</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Decorative Pot with Stand</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Decorative pot with wooden stand for living rooms.</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>25</v>
-      </c>
-      <c r="E57" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="F57" t="n">
-        <v>20</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>['All', 'Pots']</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Plastic Pot - 5 inch</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Sturdy plastic pot suitable for various plants.</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>70</v>
-      </c>
-      <c r="E58" t="n">
-        <v>10</v>
-      </c>
-      <c r="F58" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>['All', 'Pots']</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Bamboo Pot - Eco Friendly</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Eco-friendly bamboo pot for sustainable gardening.</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>45</v>
-      </c>
-      <c r="E59" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F59" t="n">
-        <v>11</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>['All', 'Pots']</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Self-Watering Pot - 6 inch</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Self-watering pot to keep plants hydrated longer.</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>55</v>
-      </c>
-      <c r="E60" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="F60" t="n">
-        <v>13</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>['All', 'Pots']</t>
         </is>
       </c>
     </row>
